--- a/input/基底薪資.xlsx
+++ b/input/基底薪資.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laishengyuan/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laishengyuan/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{84CA78FC-53BD-974B-BD3A-3AB881A7485D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDF5BC68-C1BC-5642-944B-F6CFA57D251B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2680" yWindow="1560" windowWidth="28240" windowHeight="17320" xr2:uid="{309407E1-A643-9F4B-A050-AFB1FB170568}"/>
   </bookViews>
@@ -46,26 +46,28 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>吳冬羽</t>
-  </si>
-  <si>
     <t>張士庭</t>
   </si>
   <si>
     <t>羅然</t>
   </si>
   <si>
-    <t>賴聖元</t>
-  </si>
-  <si>
-    <t>鄭名佑</t>
+    <t>陳柏宇</t>
+  </si>
+  <si>
+    <t>張哲銘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陳禎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -87,6 +89,14 @@
       <color theme="10"/>
       <name val="新細明體"/>
       <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
@@ -116,11 +126,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -461,66 +474,65 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="209" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="16384" width="10.83203125" style="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2">
-        <v>220</v>
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1">
+        <v>300</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
         <v>300</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
         <v>300</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="1">
-        <v>200</v>
+        <v>300</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B6">
-        <v>280</v>
+      <c r="B6" s="1">
+        <v>300</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="B5" r:id="rId1" display="http://localhost:3000/view1/e78453" xr:uid="{9CB6B131-218C-844D-9F21-6601C9F0E5D0}"/>
-    <hyperlink ref="A5" r:id="rId2" display="http://localhost:3000/view1/e78453" xr:uid="{71296286-49E4-BE45-B7C6-28F4912419EE}"/>
-    <hyperlink ref="A6" r:id="rId3" display="http://localhost:3000/view1/88d342" xr:uid="{3F09023C-48D1-CE4B-A8D3-DAB23764C15A}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/input/基底薪資.xlsx
+++ b/input/基底薪資.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
-  <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laishengyuan/Downloads/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDF5BC68-C1BC-5642-944B-F6CFA57D251B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="2680" yWindow="1560" windowWidth="28240" windowHeight="17320" xr2:uid="{309407E1-A643-9F4B-A050-AFB1FB170568}"/>
+    <workbookView xWindow="2676" yWindow="1558" windowWidth="20848" windowHeight="11821"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>老師姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -49,9 +43,6 @@
     <t>張士庭</t>
   </si>
   <si>
-    <t>羅然</t>
-  </si>
-  <si>
     <t>陳柏宇</t>
   </si>
   <si>
@@ -60,14 +51,50 @@
   </si>
   <si>
     <t>陳禎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王逸蓁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黃瑜富</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林育賢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鄭名佑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吳若水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王芃元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>張士庭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郭家豪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郭于訓</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -197,7 +224,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:latin typeface="Aptos Display"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -249,7 +276,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:latin typeface="Aptos Narrow"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -463,26 +490,26 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE0D5241-B0F8-444F-9DE0-6E1C1E197265}">
-  <dimension ref="A1:B6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="209" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="209" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="16384" width="10.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -490,15 +517,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1">
         <v>300</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -506,15 +533,15 @@
         <v>300</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="B4" s="1">
         <v>300</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -522,11 +549,75 @@
         <v>300</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="1">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="1">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="1">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="1">
         <v>300</v>
       </c>
     </row>
